--- a/biology/Zoologie/Entomoscelis/Entomoscelis.xlsx
+++ b/biology/Zoologie/Entomoscelis/Entomoscelis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Entomoscelis est un genre de coléoptères de la famille des Chrysomelidae.
 </t>
@@ -511,11 +523,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le genre Entomoscelis a été créé en 1836 par l'entomologiste français Auguste Chevrolat (1799-1884)
-Le nom valide complet (avec auteur) de ce taxon est Entomoscelis Chevrolat, 1836[1].
-Entomoscelis a pour synonymes[1] :
+Le nom valide complet (avec auteur) de ce taxon est Entomoscelis Chevrolat, 1836.
+Entomoscelis a pour synonymes :
 Basilewskyanella Daccordi, 1975
 Chrysomelopsila Strand, 1935
 Chrysomelopsis Achard, 1922
@@ -547,9 +561,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les individus adultes des différentes espèces de ce genre se reconnaissent à leurs élytres rouges marqués de noir[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les individus adultes des différentes espèces de ce genre se reconnaissent à leurs élytres rouges marqués de noir.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces appartenant au genre Entomoscelis sont répandues dans tout l'hémisphère nord[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces appartenant au genre Entomoscelis sont répandues dans tout l'hémisphère nord.
 </t>
         </is>
       </c>
@@ -609,9 +627,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (22 février 2023)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (22 février 2023) :
 Entomoscelis adonidis (Pallas, 1771)
 Entomoscelis americana W.J.Brown, 1942
 Entomoscelis erythrocnema Jacobson
